--- a/Results_ex.xlsx
+++ b/Results_ex.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Network</t>
   </si>
@@ -225,13 +225,25 @@
     <t>vgg16_com_1</t>
   </si>
   <si>
-    <t>vgg16_com_2</t>
-  </si>
-  <si>
     <t>Kernel size(unblurred k=1)</t>
   </si>
   <si>
     <t>densenet161</t>
+  </si>
+  <si>
+    <t>densee_com_v3</t>
+  </si>
+  <si>
+    <t>densee_com_v5</t>
+  </si>
+  <si>
+    <t>vgg16_com_3_1</t>
+  </si>
+  <si>
+    <t>vgg16_com_3</t>
+  </si>
+  <si>
+    <t>densee_com_v5_1</t>
   </si>
 </sst>
 </file>
@@ -550,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,11 +580,13 @@
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -616,10 +630,22 @@
         <v>67</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,13 +692,19 @@
         <v>66</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -718,8 +750,20 @@
       <c r="O3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -765,10 +809,22 @@
       <c r="O4">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -812,8 +868,20 @@
       <c r="O5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -859,8 +927,20 @@
       <c r="O6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -906,8 +986,20 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -954,7 +1046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1048,7 +1140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1142,7 +1234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +1281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1283,7 +1375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2369,5 +2461,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results_ex.xlsx
+++ b/Results_ex.xlsx
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,6 +1045,12 @@
       <c r="O8">
         <v>29</v>
       </c>
+      <c r="Q8">
+        <v>51</v>
+      </c>
+      <c r="R8">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1092,6 +1098,12 @@
       <c r="O9">
         <v>41</v>
       </c>
+      <c r="Q9">
+        <v>57</v>
+      </c>
+      <c r="R9">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1139,6 +1151,12 @@
       <c r="O10">
         <v>48</v>
       </c>
+      <c r="Q10">
+        <v>62</v>
+      </c>
+      <c r="R10">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1186,6 +1204,12 @@
       <c r="O11">
         <v>59</v>
       </c>
+      <c r="Q11">
+        <v>67</v>
+      </c>
+      <c r="R11">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1233,6 +1257,12 @@
       <c r="O12">
         <v>63</v>
       </c>
+      <c r="Q12">
+        <v>70</v>
+      </c>
+      <c r="R12">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1280,6 +1310,12 @@
       <c r="O13">
         <v>64</v>
       </c>
+      <c r="Q13">
+        <v>71</v>
+      </c>
+      <c r="R13">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1327,6 +1363,12 @@
       <c r="O14">
         <v>65</v>
       </c>
+      <c r="Q14">
+        <v>73</v>
+      </c>
+      <c r="R14">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1374,6 +1416,12 @@
       <c r="O15">
         <v>67</v>
       </c>
+      <c r="Q15">
+        <v>71</v>
+      </c>
+      <c r="R15">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1421,8 +1469,14 @@
       <c r="O16">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>72</v>
+      </c>
+      <c r="R16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1468,8 +1522,14 @@
       <c r="O17">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>74</v>
+      </c>
+      <c r="R17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1575,14 @@
       <c r="O18">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>67</v>
+      </c>
+      <c r="R18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1562,8 +1628,14 @@
       <c r="O19">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>74</v>
+      </c>
+      <c r="R19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1609,8 +1681,14 @@
       <c r="O20">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>75</v>
+      </c>
+      <c r="R20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1656,8 +1734,14 @@
       <c r="O21">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>76</v>
+      </c>
+      <c r="R21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1703,8 +1787,14 @@
       <c r="O22">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>76</v>
+      </c>
+      <c r="R22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1750,8 +1840,14 @@
       <c r="O23">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>77</v>
+      </c>
+      <c r="R23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1797,8 +1893,14 @@
       <c r="O24">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>76</v>
+      </c>
+      <c r="R24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1844,8 +1946,14 @@
       <c r="O25">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>76</v>
+      </c>
+      <c r="R25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1891,8 +1999,14 @@
       <c r="O26">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>76</v>
+      </c>
+      <c r="R26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2052,14 @@
       <c r="O27">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>76</v>
+      </c>
+      <c r="R27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +2085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1991,7 +2111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2017,7 +2137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2163,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>

--- a/Results_ex.xlsx
+++ b/Results_ex.xlsx
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,11 +1045,17 @@
       <c r="O8">
         <v>29</v>
       </c>
+      <c r="P8">
+        <v>34</v>
+      </c>
       <c r="Q8">
         <v>51</v>
       </c>
       <c r="R8">
         <v>33</v>
+      </c>
+      <c r="S8">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1098,11 +1104,17 @@
       <c r="O9">
         <v>41</v>
       </c>
+      <c r="P9">
+        <v>48</v>
+      </c>
       <c r="Q9">
         <v>57</v>
       </c>
       <c r="R9">
         <v>47</v>
+      </c>
+      <c r="S9">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1151,11 +1163,17 @@
       <c r="O10">
         <v>48</v>
       </c>
+      <c r="P10">
+        <v>64</v>
+      </c>
       <c r="Q10">
         <v>62</v>
       </c>
       <c r="R10">
         <v>53</v>
+      </c>
+      <c r="S10">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1204,11 +1222,17 @@
       <c r="O11">
         <v>59</v>
       </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
       <c r="Q11">
         <v>67</v>
       </c>
       <c r="R11">
         <v>53</v>
+      </c>
+      <c r="S11">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1257,11 +1281,17 @@
       <c r="O12">
         <v>63</v>
       </c>
+      <c r="P12">
+        <v>74</v>
+      </c>
       <c r="Q12">
         <v>70</v>
       </c>
       <c r="R12">
         <v>61</v>
+      </c>
+      <c r="S12">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1310,11 +1340,17 @@
       <c r="O13">
         <v>64</v>
       </c>
+      <c r="P13">
+        <v>73</v>
+      </c>
       <c r="Q13">
         <v>71</v>
       </c>
       <c r="R13">
         <v>57</v>
+      </c>
+      <c r="S13">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1363,11 +1399,17 @@
       <c r="O14">
         <v>65</v>
       </c>
+      <c r="P14">
+        <v>78</v>
+      </c>
       <c r="Q14">
         <v>73</v>
       </c>
       <c r="R14">
         <v>62</v>
+      </c>
+      <c r="S14">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1416,11 +1458,17 @@
       <c r="O15">
         <v>67</v>
       </c>
+      <c r="P15">
+        <v>78</v>
+      </c>
       <c r="Q15">
         <v>71</v>
       </c>
       <c r="R15">
         <v>58</v>
+      </c>
+      <c r="S15">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1469,14 +1517,20 @@
       <c r="O16">
         <v>69</v>
       </c>
+      <c r="P16">
+        <v>79</v>
+      </c>
       <c r="Q16">
         <v>72</v>
       </c>
       <c r="R16">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1522,14 +1576,20 @@
       <c r="O17">
         <v>69</v>
       </c>
+      <c r="P17">
+        <v>81</v>
+      </c>
       <c r="Q17">
         <v>74</v>
       </c>
       <c r="R17">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1575,14 +1635,20 @@
       <c r="O18">
         <v>70</v>
       </c>
+      <c r="P18">
+        <v>80</v>
+      </c>
       <c r="Q18">
         <v>67</v>
       </c>
       <c r="R18">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1628,14 +1694,20 @@
       <c r="O19">
         <v>72</v>
       </c>
+      <c r="P19">
+        <v>80</v>
+      </c>
       <c r="Q19">
         <v>74</v>
       </c>
       <c r="R19">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1681,14 +1753,20 @@
       <c r="O20">
         <v>68</v>
       </c>
+      <c r="P20">
+        <v>78</v>
+      </c>
       <c r="Q20">
         <v>75</v>
       </c>
       <c r="R20">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1734,14 +1812,20 @@
       <c r="O21">
         <v>70</v>
       </c>
+      <c r="P21">
+        <v>79</v>
+      </c>
       <c r="Q21">
         <v>76</v>
       </c>
       <c r="R21">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1787,14 +1871,20 @@
       <c r="O22">
         <v>69</v>
       </c>
+      <c r="P22">
+        <v>80</v>
+      </c>
       <c r="Q22">
         <v>76</v>
       </c>
       <c r="R22">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1840,14 +1930,20 @@
       <c r="O23">
         <v>69</v>
       </c>
+      <c r="P23">
+        <v>81</v>
+      </c>
       <c r="Q23">
         <v>77</v>
       </c>
       <c r="R23">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1893,14 +1989,20 @@
       <c r="O24">
         <v>68</v>
       </c>
+      <c r="P24">
+        <v>80</v>
+      </c>
       <c r="Q24">
         <v>76</v>
       </c>
       <c r="R24">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1946,14 +2048,20 @@
       <c r="O25">
         <v>67</v>
       </c>
+      <c r="P25">
+        <v>81</v>
+      </c>
       <c r="Q25">
         <v>76</v>
       </c>
       <c r="R25">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1999,14 +2107,20 @@
       <c r="O26">
         <v>72</v>
       </c>
+      <c r="P26">
+        <v>81</v>
+      </c>
       <c r="Q26">
         <v>76</v>
       </c>
       <c r="R26">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2052,14 +2166,20 @@
       <c r="O27">
         <v>69</v>
       </c>
+      <c r="P27">
+        <v>81</v>
+      </c>
       <c r="Q27">
         <v>76</v>
       </c>
       <c r="R27">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2085,7 +2205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2137,7 +2257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2283,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
